--- a/medicine/Mort/Décès_en_1924/Décès_en_1924.xlsx
+++ b/medicine/Mort/Décès_en_1924/Décès_en_1924.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:F15"/>
+  <dimension ref="A1:H15"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -456,6 +456,16 @@
       </c>
       <c r="F1" s="1" t="inlineStr">
         <is>
+          <t>section</t>
+        </is>
+      </c>
+      <c r="G1" s="1" t="inlineStr">
+        <is>
+          <t>sub_section</t>
+        </is>
+      </c>
+      <c r="H1" s="1" t="inlineStr">
+        <is>
           <t>article_source</t>
         </is>
       </c>
@@ -466,7 +476,7 @@
       </c>
       <c r="B2" t="inlineStr">
         <is>
-          <t>D%C3%A9c%C3%A8s_en_1924</t>
+          <t>Décès_en_1924</t>
         </is>
       </c>
       <c r="C2" t="inlineStr">
@@ -480,7 +490,9 @@
         </is>
       </c>
       <c r="E2" t="inlineStr"/>
-      <c r="F2" t="inlineStr">
+      <c r="F2" t="inlineStr"/>
+      <c r="G2" t="inlineStr"/>
+      <c r="H2" t="inlineStr">
         <is>
           <t xml:space="preserve">
 Décès
@@ -508,7 +520,7 @@
       </c>
       <c r="B3" t="inlineStr">
         <is>
-          <t>D%C3%A9c%C3%A8s_en_1924</t>
+          <t>Décès_en_1924</t>
         </is>
       </c>
       <c r="C3" t="inlineStr">
@@ -526,7 +538,9 @@
           <t>Inconnu</t>
         </is>
       </c>
-      <c r="F3" t="inlineStr">
+      <c r="F3" t="inlineStr"/>
+      <c r="G3" t="inlineStr"/>
+      <c r="H3" t="inlineStr">
         <is>
           <t>Yohanna Abdallah, religieux et historien malawite (° vers 1870).
 Franck Bail, peintre français (° 15 août 1858).
@@ -548,7 +562,7 @@
       </c>
       <c r="B4" t="inlineStr">
         <is>
-          <t>D%C3%A9c%C3%A8s_en_1924</t>
+          <t>Décès_en_1924</t>
         </is>
       </c>
       <c r="C4" t="inlineStr">
@@ -566,7 +580,9 @@
           <t>Janvier</t>
         </is>
       </c>
-      <c r="F4" t="inlineStr">
+      <c r="F4" t="inlineStr"/>
+      <c r="G4" t="inlineStr"/>
+      <c r="H4" t="inlineStr">
         <is>
           <t>2 janvier : Paul Renouard, peintre et graveur français (° 5 novembre 1845).
 4 janvier : Alfred Grünfeld, pianiste et compositeur autrichien (° 4 juillet 1852).
@@ -587,7 +603,7 @@
       </c>
       <c r="B5" t="inlineStr">
         <is>
-          <t>D%C3%A9c%C3%A8s_en_1924</t>
+          <t>Décès_en_1924</t>
         </is>
       </c>
       <c r="C5" t="inlineStr">
@@ -605,7 +621,9 @@
           <t>Février</t>
         </is>
       </c>
-      <c r="F5" t="inlineStr">
+      <c r="F5" t="inlineStr"/>
+      <c r="G5" t="inlineStr"/>
+      <c r="H5" t="inlineStr">
         <is>
           <t>3 février : Woodrow Wilson, 28e président des États-Unis (° 28 décembre 1856).
 8 février : Eugène Charvot, peintre français (° 11 février 1847).
@@ -626,7 +644,7 @@
       </c>
       <c r="B6" t="inlineStr">
         <is>
-          <t>D%C3%A9c%C3%A8s_en_1924</t>
+          <t>Décès_en_1924</t>
         </is>
       </c>
       <c r="C6" t="inlineStr">
@@ -644,7 +662,9 @@
           <t>Mars</t>
         </is>
       </c>
-      <c r="F6" t="inlineStr">
+      <c r="F6" t="inlineStr"/>
+      <c r="G6" t="inlineStr"/>
+      <c r="H6" t="inlineStr">
         <is>
           <t>1er mars :
 Billy Armstrong, acteur britannique (° 14 janvier 1891).
@@ -670,7 +690,7 @@
       </c>
       <c r="B7" t="inlineStr">
         <is>
-          <t>D%C3%A9c%C3%A8s_en_1924</t>
+          <t>Décès_en_1924</t>
         </is>
       </c>
       <c r="C7" t="inlineStr">
@@ -688,7 +708,9 @@
           <t>Avril</t>
         </is>
       </c>
-      <c r="F7" t="inlineStr">
+      <c r="F7" t="inlineStr"/>
+      <c r="G7" t="inlineStr"/>
+      <c r="H7" t="inlineStr">
         <is>
           <t>1er avril : Lloyd Hildebrand, coureur cycliste britannique (° 25 décembre 1870).
 2 avril : Maxmilián Pirner, peintre et enseignant austro-hongrois puis tchécoslovaque (° 13 février 1854).
@@ -704,7 +726,7 @@
       </c>
       <c r="B8" t="inlineStr">
         <is>
-          <t>D%C3%A9c%C3%A8s_en_1924</t>
+          <t>Décès_en_1924</t>
         </is>
       </c>
       <c r="C8" t="inlineStr">
@@ -722,7 +744,9 @@
           <t>Mai</t>
         </is>
       </c>
-      <c r="F8" t="inlineStr">
+      <c r="F8" t="inlineStr"/>
+      <c r="G8" t="inlineStr"/>
+      <c r="H8" t="inlineStr">
         <is>
           <t>6 mai : Émile Wambach, compositeur, chef d'orchestre, violoniste et pianiste belge (° 26 novembre 1854).
 20 mai : Joseph Timchenko, inventeur ukrainien (° 26 avril 1852).
@@ -741,7 +765,7 @@
       </c>
       <c r="B9" t="inlineStr">
         <is>
-          <t>D%C3%A9c%C3%A8s_en_1924</t>
+          <t>Décès_en_1924</t>
         </is>
       </c>
       <c r="C9" t="inlineStr">
@@ -759,7 +783,9 @@
           <t>Juin</t>
         </is>
       </c>
-      <c r="F9" t="inlineStr">
+      <c r="F9" t="inlineStr"/>
+      <c r="G9" t="inlineStr"/>
+      <c r="H9" t="inlineStr">
         <is>
           <t>3 juin : Franz Kafka, écrivain, tchèque (° 3 juillet 1883).
 5 juin : Émile Noirot, peintre français (° 5 juin 1853).
@@ -779,7 +805,7 @@
       </c>
       <c r="B10" t="inlineStr">
         <is>
-          <t>D%C3%A9c%C3%A8s_en_1924</t>
+          <t>Décès_en_1924</t>
         </is>
       </c>
       <c r="C10" t="inlineStr">
@@ -797,7 +823,9 @@
           <t>Juillet</t>
         </is>
       </c>
-      <c r="F10" t="inlineStr">
+      <c r="F10" t="inlineStr"/>
+      <c r="G10" t="inlineStr"/>
+      <c r="H10" t="inlineStr">
         <is>
           <t>13 juillet : Alfred Marshall, économiste, britannique (° 26 juillet 1842).
 15 juillet : Kuroda Seiki, peintre japonais (° 9 août 1866).
@@ -815,7 +843,7 @@
       </c>
       <c r="B11" t="inlineStr">
         <is>
-          <t>D%C3%A9c%C3%A8s_en_1924</t>
+          <t>Décès_en_1924</t>
         </is>
       </c>
       <c r="C11" t="inlineStr">
@@ -833,7 +861,9 @@
           <t>Août</t>
         </is>
       </c>
-      <c r="F11" t="inlineStr">
+      <c r="F11" t="inlineStr"/>
+      <c r="G11" t="inlineStr"/>
+      <c r="H11" t="inlineStr">
         <is>
           <t>14 août : Fernand Legout-Gérard, peintre de la Marine français (° 29 octobre 1856).
 19 août : Ferdinand Cheval, facteur français, célèbre pour son Palais idéal (° 19 avril 1836).
@@ -850,7 +880,7 @@
       </c>
       <c r="B12" t="inlineStr">
         <is>
-          <t>D%C3%A9c%C3%A8s_en_1924</t>
+          <t>Décès_en_1924</t>
         </is>
       </c>
       <c r="C12" t="inlineStr">
@@ -868,7 +898,9 @@
           <t>Septembre</t>
         </is>
       </c>
-      <c r="F12" t="inlineStr">
+      <c r="F12" t="inlineStr"/>
+      <c r="G12" t="inlineStr"/>
+      <c r="H12" t="inlineStr">
         <is>
           <t>2 septembre : Paul-Eugène Mesplès, peintre, caricaturiste, musicien, illustrateur, lithographe, graveur et chansonnier français (° 7 juillet 1849).
 8 septembre : Henri-Georges Chartier, peintre français (° 25 février 1859).
@@ -883,7 +915,7 @@
       </c>
       <c r="B13" t="inlineStr">
         <is>
-          <t>D%C3%A9c%C3%A8s_en_1924</t>
+          <t>Décès_en_1924</t>
         </is>
       </c>
       <c r="C13" t="inlineStr">
@@ -901,7 +933,9 @@
           <t>Octobre</t>
         </is>
       </c>
-      <c r="F13" t="inlineStr">
+      <c r="F13" t="inlineStr"/>
+      <c r="G13" t="inlineStr"/>
+      <c r="H13" t="inlineStr">
         <is>
           <t>3 octobre : Charles Moreau-Vauthier, peintre, historien de l'art et écrivain français (° 5 juin 1857).
 8 octobre : Louise Rayner, aquarelliste britannique (° 21 juin 1832).
@@ -926,7 +960,7 @@
       </c>
       <c r="B14" t="inlineStr">
         <is>
-          <t>D%C3%A9c%C3%A8s_en_1924</t>
+          <t>Décès_en_1924</t>
         </is>
       </c>
       <c r="C14" t="inlineStr">
@@ -944,7 +978,9 @@
           <t>Novembre</t>
         </is>
       </c>
-      <c r="F14" t="inlineStr">
+      <c r="F14" t="inlineStr"/>
+      <c r="G14" t="inlineStr"/>
+      <c r="H14" t="inlineStr">
         <is>
           <t>4 novembre : Gabriel Fauré, compositeur français (° 12 mai 1845).
 6 novembre : Kamil Vladislav Muttich, peintre et illustrateur austro-hongrois puis tchécoslovaque (° 10 février 1873).
@@ -970,7 +1006,7 @@
       </c>
       <c r="B15" t="inlineStr">
         <is>
-          <t>D%C3%A9c%C3%A8s_en_1924</t>
+          <t>Décès_en_1924</t>
         </is>
       </c>
       <c r="C15" t="inlineStr">
@@ -988,7 +1024,9 @@
           <t>Décembre</t>
         </is>
       </c>
-      <c r="F15" t="inlineStr">
+      <c r="F15" t="inlineStr"/>
+      <c r="G15" t="inlineStr"/>
+      <c r="H15" t="inlineStr">
         <is>
           <t xml:space="preserve">5 décembre :
 François Duine, historien et folkloriste.  (° 8 mai 1870).
